--- a/config_debug/broadcast_id_partition.xlsx
+++ b/config_debug/broadcast_id_partition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cpl_cjj|权限key" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -93,6 +93,9 @@
   <si>
     <t>lwzb_award_big_award</t>
   </si>
+  <si>
+    <t>super_treasure_award</t>
+  </si>
 </sst>
 </file>
 
@@ -100,9 +103,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -150,53 +153,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -211,10 +167,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,23 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,45 +288,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -332,12 +335,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,7 +473,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,145 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,50 +558,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,6 +601,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,137 +660,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2357,8 +2360,8 @@
   <sheetPr/>
   <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -2399,8 +2402,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3"/>
@@ -2706,8 +2714,8 @@
   <sheetPr/>
   <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -2748,8 +2756,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3"/>
